--- a/prog/model/validation_results/fpr_tpr.xlsx
+++ b/prog/model/validation_results/fpr_tpr.xlsx
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8174594078319006</v>
+        <v>0.9985100286532951</v>
       </c>
       <c r="C2">
-        <v>0.1825405921680993</v>
+        <v>0.001489971346704871</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3871338311315336</v>
+        <v>0.9735784032165422</v>
       </c>
       <c r="C3">
-        <v>0.6128661688684663</v>
+        <v>0.02642159678345778</v>
       </c>
     </row>
   </sheetData>

--- a/prog/model/validation_results/fpr_tpr.xlsx
+++ b/prog/model/validation_results/fpr_tpr.xlsx
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9985100286532951</v>
+        <v>0.8174594078319006</v>
       </c>
       <c r="C2">
-        <v>0.001489971346704871</v>
+        <v>0.1825405921680993</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9735784032165422</v>
+        <v>0.3871338311315336</v>
       </c>
       <c r="C3">
-        <v>0.02642159678345778</v>
+        <v>0.6128661688684663</v>
       </c>
     </row>
   </sheetData>
